--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\eclipse-workspace\VentaAccesorios3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\eclipse-workspace\Accesorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="DatosUsuario" sheetId="1" r:id="rId1"/>
     <sheet name="BusquedaDeUsuario" sheetId="2" r:id="rId2"/>
+    <sheet name="CriterioBusqueda" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>usuario</t>
   </si>
@@ -43,6 +44,12 @@
   </si>
   <si>
     <t>123456789</t>
+  </si>
+  <si>
+    <t>criterio</t>
+  </si>
+  <si>
+    <t>MOTO G60</t>
   </si>
 </sst>
 </file>
@@ -420,4 +427,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>